--- a/mosque-data/mosque-data.xlsx
+++ b/mosque-data/mosque-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\All Saints\Desktop\Coding Projects\SyedZaheen.github.io\mosque-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DC08A9-03B1-40EC-A3BC-365F5D81A7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3C5161-BB3D-4025-A804-431D8E0EC221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Asr</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Birminghsm</t>
+  </si>
+  <si>
+    <t>Edinburgj</t>
   </si>
 </sst>
 </file>
@@ -394,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -484,6 +487,32 @@
         <v>0.95972222222222225</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.18611111111111112</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.85138888888888886</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.90763888888888888</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.95972222222222225</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.95972222222222225</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mosque-data/mosque-data.xlsx
+++ b/mosque-data/mosque-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\All Saints\Desktop\Coding Projects\SyedZaheen.github.io\mosque-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3C5161-BB3D-4025-A804-431D8E0EC221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF83575F-89D8-5B4E-81B6-F5614F85EE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Asr</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Edinburgj</t>
+  </si>
+  <si>
+    <t>Adam Mosque &amp; Dawah Academy, 19-31 Brunswick Rd, Sparkbrook, B12 8NP</t>
   </si>
 </sst>
 </file>
@@ -67,7 +70,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +85,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6B7280"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -117,6 +126,8 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,19 +408,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" customWidth="1"/>
+    <col min="1" max="1" width="60.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -435,7 +446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -461,7 +472,7 @@
         <v>0.95972222222222225</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -487,7 +498,7 @@
         <v>0.95972222222222225</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -512,6 +523,32 @@
       <c r="H4" s="5">
         <v>0.95972222222222225</v>
       </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.17708333333333334</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.87777777777777777</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mosque-data/mosque-data.xlsx
+++ b/mosque-data/mosque-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\All Saints\Desktop\Coding Projects\SyedZaheen.github.io\mosque-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64929774-F52F-4993-B0F5-17411A936C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC02AE7E-C227-4ED5-8455-F5FB12E0498F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -767,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA989"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -30464,7 +30464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA4C958-D133-4CF7-89C5-4A0086CB5E4F}">
   <dimension ref="A2:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
